--- a/doc/ue_bigworld.xlsx
+++ b/doc/ue_bigworld.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E920847F-BD48-4F88-813E-FB082B4AB0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E2E3F1-B105-4747-AD46-22A861DB15EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="UE4流式关卡大世界" sheetId="3" r:id="rId3"/>
     <sheet name="UE5世界分区大世界" sheetId="4" r:id="rId4"/>
     <sheet name="通用需求" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>针对UE各个版本的大世界实现方案，在加上我们自己一般的需求，最终给出解决方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +109,10 @@
   </si>
   <si>
     <t>尤其是移动设备，Android各种手机性能差别比较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,6 +191,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27714</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5639650-C872-531A-09D6-B5221B602C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="904875"/>
+          <a:ext cx="6885714" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160673</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76E650D-04D2-E6E0-16CC-8C101A57BE20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="5143500"/>
+          <a:ext cx="10019048" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -655,4 +753,27 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918748C-7D2E-4386-9DA3-B8190DC447F3}">
+  <dimension ref="C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/ue_bigworld.xlsx
+++ b/doc/ue_bigworld.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E2E3F1-B105-4747-AD46-22A861DB15EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826D733-DCD4-412E-893C-B2A950008B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="UE4流式关卡大世界" sheetId="3" r:id="rId3"/>
     <sheet name="UE5世界分区大世界" sheetId="4" r:id="rId4"/>
     <sheet name="通用需求" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="优化" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>针对UE各个版本的大世界实现方案，在加上我们自己一般的需求，最终给出解决方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,7 +112,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WC</t>
+    <t>WC模式下，Tile-Layer动态设置属性，达到适配高中低设备需求，既优化了渲染又优化了内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP模式下，动态修改datalayer数据，达到适配高中低设备需求，既优化了渲染又优化了内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detial Mode，启动时动态设置后，可以实现不渲染，达到适配高中低设备需求，只优化了渲染，内存还是没优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个就是判断其渲染不渲染的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种高中低设备适配策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,13 +219,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>27714</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>94831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -243,13 +263,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>160673</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>66450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -275,6 +295,94 @@
         <a:xfrm>
           <a:off x="1800225" y="5143500"/>
           <a:ext cx="10019048" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>646375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A04FB8-7C59-095B-C04C-421AFC1A087B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="1019175"/>
+          <a:ext cx="10600000" cy="1123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>570761</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E2995C-13C6-E250-CEAF-8D08F8AFA91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115675" y="1019175"/>
+          <a:ext cx="5914286" cy="1095238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,17 +865,64 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918748C-7D2E-4386-9DA3-B8190DC447F3}">
-  <dimension ref="C3"/>
+  <dimension ref="A2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_bigworld.xlsx
+++ b/doc/ue_bigworld.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826D733-DCD4-412E-893C-B2A950008B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28805FF-E3FF-4D07-9936-24FA662B34A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="UE5世界分区大世界" sheetId="4" r:id="rId4"/>
     <sheet name="通用需求" sheetId="5" r:id="rId5"/>
     <sheet name="优化" sheetId="6" r:id="rId6"/>
+    <sheet name="FLODSceneTree" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>针对UE各个版本的大世界实现方案，在加上我们自己一般的需求，最终给出解决方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +134,144 @@
   </si>
   <si>
     <t>三种高中低设备适配策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proxy Level</t>
+  </si>
+  <si>
+    <t>LOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLOD</t>
+  </si>
+  <si>
+    <t>Max DrallDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样子WC在收集的时候就不加载指定Layer的数据了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Bounding information used to cull primitives in the scene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>struct FPrimitiveBounds</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>FBoxSphereBounds BoxSphereBounds;</t>
+  </si>
+  <si>
+    <t>/** Square of the minimum draw distance for the primitive. */</t>
+  </si>
+  <si>
+    <t>float MinDrawDistanceSq;</t>
+  </si>
+  <si>
+    <t>/** Maximum draw distance for the primitive. */</t>
+  </si>
+  <si>
+    <t>float MaxDrawDistance;</t>
+  </si>
+  <si>
+    <t>/** Maximum cull distance for the primitive. This is only different from the MaxDrawDistance for HLOD.*/</t>
+  </si>
+  <si>
+    <t>float MaxCullDistance;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>bool FViewInfo::IsDistanceCulled_AnyThread(float DistanceSquared, float MinDrawDistance, float InMaxDrawDistance, const FPrimitiveSceneInfo* PrimitiveSceneInfo, bool&amp; bOutMayBeFading, bool&amp; bOutFadingIn) const</t>
+  </si>
+  <si>
+    <t>渲染的几个参数，在CULL的时候会用到，直接剔除渲染了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int32 FrustumCull(const FScene* Scene, FViewInfo&amp; View)</t>
+  </si>
+  <si>
+    <t>// Update HLOD transition/visibility states to allow use during distance culling</t>
+  </si>
+  <si>
+    <t>FLODSceneTree&amp; HLODTree = Scene-&gt;SceneLODHierarchy;</t>
+  </si>
+  <si>
+    <t>if (HLODTree.IsActive())</t>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(STAT_ViewVisibilityTime_HLODUpdate);</t>
+  </si>
+  <si>
+    <t>HLODTree.UpdateVisibilityStates(View);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>HLODTree.ClearVisibilityState(View);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void FSceneRenderer::ComputeViewVisibility(FRHICommandListImmediate&amp; RHICmdList, FExclusiveDepthStencil::Type BasePassDepthStencilAccess, FViewVisibleCommandsPerView&amp; ViewCommandsPerView, </t>
+  </si>
+  <si>
+    <t>FGlobalDynamicIndexBuffer&amp; DynamicIndexBuffer, FGlobalDynamicVertexBuffer&amp; DynamicVertexBuffer, FGlobalDynamicReadBuffer&amp; DynamicReadBuffer)</t>
+  </si>
+  <si>
+    <t>static void RenderViewFamily_RenderThread(FRHICommandListImmediate&amp; RHICmdList, FSceneRenderer* SceneRenderer)</t>
+  </si>
+  <si>
+    <t>void FDeferredShadingSceneRenderer::Render(FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>bool FDeferredShadingSceneRenderer::InitViews(FRHICommandListImmediate&amp; RHICmdList, FExclusiveDepthStencil::Type BasePassDepthStencilAccess, struct FILCUpdatePrimTaskData&amp; ILCTaskData)</t>
+  </si>
+  <si>
+    <t>怎么判断的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要搞清楚LOD几个关键参数发生的时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景的FLodSceneTree有啥用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意这个时候，获取场景的LodHierarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果可用就进入判断，里面就会算编辑器设置的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +310,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,10 +337,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -383,6 +529,99 @@
         <a:xfrm>
           <a:off x="11115675" y="1019175"/>
           <a:ext cx="5914286" cy="1095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218562</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C200FC-2B70-43D0-A9B5-EA0EDD8EF51B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="10267950"/>
+          <a:ext cx="4104762" cy="2266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28062</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>75917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747758DB-9414-4EA9-8530-67178199B359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9639300" y="704850"/>
+          <a:ext cx="4104762" cy="2266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -865,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918748C-7D2E-4386-9DA3-B8190DC447F3}">
-  <dimension ref="A2:Q44"/>
+  <dimension ref="A2:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -899,17 +1138,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -923,6 +1170,124 @@
       </c>
       <c r="C44" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B80" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -931,4 +1296,195 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12C5DEF-1858-4A5E-8E8B-84E64B6A76D3}">
+  <dimension ref="B3:O37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>